--- a/BE/ims_backend/transactions.xlsx
+++ b/BE/ims_backend/transactions.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,112 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Cafe</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-02-18 19:35:58</t>
+          <t>2024-02-25 03:01:32</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Fresh Milk</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Cafe</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2024-02-25 09:56:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>13</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Intern</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024-02-18 19:37:42</t>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Cafe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024-02-25 10:15:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Coffee Beans</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>500</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Cafe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2024-02-25 10:38:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fresh Milk</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Cafe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2024-02-25 13:11:53</t>
         </is>
       </c>
     </row>
